--- a/MedicalLink/Templates/0_ToolsMayXetNghiemKhuVuc_Export.xlsx
+++ b/MedicalLink/Templates/0_ToolsMayXetNghiemKhuVuc_Export.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>DANH MỤC IMPORT MÁY XÉT NGHIỆM - KHU VỰC</t>
   </si>
@@ -81,13 +81,16 @@
   </si>
   <si>
     <t>LASTTIMEUPDATED</t>
+  </si>
+  <si>
+    <t>(bắt buộc)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +127,12 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="13"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
@@ -179,7 +188,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -196,18 +205,12 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -215,10 +218,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -506,12 +521,14 @@
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="1" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="3" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" style="6" customWidth="1"/>
     <col min="6" max="6" width="33.42578125" style="6" customWidth="1"/>
@@ -524,69 +541,83 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="15" t="s">
+    <row r="5" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="13" t="s">
         <v>14</v>
       </c>
     </row>
